--- a/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/input/cells_per_well.xlsx
+++ b/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/input/cells_per_well.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E0BFAB-D32C-AC41-ABF2-42FA232D4999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53C939B-FF51-C341-A87C-C4FBDF257A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="2260" windowWidth="23440" windowHeight="14740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="2260" windowWidth="23440" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
   <si>
     <t>Sample ID</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>143B-Asn-uptake-flux_t0_w4_ 3 Oct 2020_01.#m4</t>
+  </si>
+  <si>
+    <t>Delta time</t>
+  </si>
+  <si>
+    <t>Fold cells</t>
+  </si>
+  <si>
+    <t>Prlfr</t>
   </si>
 </sst>
 </file>
@@ -4445,10 +4454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5160,7 +5169,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -5204,7 +5213,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -5248,7 +5257,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -5292,7 +5301,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -5336,7 +5345,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5380,7 +5389,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5424,7 +5433,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -5468,7 +5477,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -5512,7 +5521,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5556,12 +5565,37 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P26" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <f>F14-F2</f>
+        <v>1.0354166666584206</v>
+      </c>
+      <c r="Q27">
+        <f>AVERAGE(K14:K25)/AVERAGE(K2:K13)</f>
+        <v>2.8616997243934397</v>
+      </c>
+      <c r="R27" s="9">
+        <f>LOG(Q27,2)/P27</f>
+        <v>1.4649873313264064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>53</v>
       </c>
@@ -7658,7 +7692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A367616-CA85-A44D-BA10-D4B99C787104}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="125" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>

--- a/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/input/cells_per_well.xlsx
+++ b/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/input/cells_per_well.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53C939B-FF51-C341-A87C-C4FBDF257A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB66A2-C953-8946-AF7E-54518B7A934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="2260" windowWidth="23440" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="2260" windowWidth="23440" windowHeight="14740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="93">
   <si>
     <t>Sample ID</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Prlfr</t>
+  </si>
+  <si>
+    <t>uL accum</t>
+  </si>
+  <si>
+    <t>L*h</t>
   </si>
 </sst>
 </file>
@@ -4134,9 +4140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4174,9 +4180,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4209,26 +4215,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4261,26 +4250,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4456,7 +4428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -5741,7 +5713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7299B22-401E-514E-B20B-B1E0F5667F84}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="125" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -6331,8 +6303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B267263-1C6F-D948-9F90-BDF35EDB8266}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView topLeftCell="A72" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7692,8 +7664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A367616-CA85-A44D-BA10-D4B99C787104}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8992,11 +8964,11 @@
         <v>77</v>
       </c>
       <c r="C62" s="7">
-        <f t="shared" ref="C62:H62" si="6">C14</f>
+        <f>C14</f>
         <v>220234.6</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C62:H62" si="6">D14</f>
         <v>214773.4</v>
       </c>
       <c r="E62" s="7">
@@ -9021,29 +8993,32 @@
         <v>78</v>
       </c>
       <c r="C63" s="7">
-        <f t="shared" ref="C63:H63" si="7">C21*2^($C$50*1/24)</f>
-        <v>375224.6</v>
+        <f>C21*2^($C$48*(C58-24))</f>
+        <v>389177.78548929078</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="7"/>
-        <v>370547.4</v>
+        <f t="shared" ref="D63:H63" si="7">D21*2^($C$48*(D58-24))</f>
+        <v>384326.658089087</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="7"/>
-        <v>371881.8</v>
+        <v>385710.67938448419</v>
       </c>
       <c r="F63" s="7">
         <f t="shared" si="7"/>
-        <v>375238.3</v>
+        <v>389191.99494054</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="7"/>
-        <v>364907.5</v>
+        <v>378477.03151241515</v>
       </c>
       <c r="H63" s="7">
         <f t="shared" si="7"/>
-        <v>363958.3</v>
-      </c>
+        <v>377492.53434995183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -9056,27 +9031,27 @@
       </c>
       <c r="C66" s="5">
         <f>$B$52*C63*0.000000001</f>
-        <v>2.0489451970166663</v>
+        <v>2.1251377291463966</v>
       </c>
       <c r="D66" s="5">
         <f t="shared" ref="D66:G66" si="8">$B$52*D63*0.000000001</f>
-        <v>2.0234049566500003</v>
+        <v>2.0986477437169668</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="8"/>
-        <v>2.0306915590499997</v>
+        <v>2.1062053073355913</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="8"/>
-        <v>2.0490200070083335</v>
+        <v>2.1252153210390636</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="8"/>
-        <v>1.9926078127083333</v>
+        <v>2.0667053703261691</v>
       </c>
       <c r="H66" s="5">
         <f>$B$52*H63*0.000000001</f>
-        <v>1.9874246270083333</v>
+        <v>2.0613294415291081</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -9173,6 +9148,14 @@
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
     </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="8">
         <f>C71</f>
@@ -9180,12 +9163,13 @@
       </c>
       <c r="D77" s="5">
         <f>C66</f>
-        <v>2.0489451970166663</v>
+        <v>2.1251377291463966</v>
       </c>
       <c r="F77" s="9">
         <f>(C62-C61)*B52*0.000000001</f>
         <v>0.33276521804166664</v>
       </c>
+      <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="8">
@@ -9194,12 +9178,13 @@
       </c>
       <c r="D78" s="5">
         <f>E66</f>
-        <v>2.0306915590499997</v>
+        <v>2.1062053073355913</v>
       </c>
       <c r="F78">
         <f>(E62-E61)*B52*0.000000001</f>
         <v>0.34350727757500005</v>
       </c>
+      <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="8">
@@ -9208,12 +9193,13 @@
       </c>
       <c r="D79" s="5">
         <f>G66</f>
-        <v>1.9926078127083333</v>
+        <v>2.0667053703261691</v>
       </c>
       <c r="F79">
         <f>(G62-G61)*B52*0.000000001</f>
         <v>0.33021130321666659</v>
       </c>
+      <c r="H79" s="5"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="8">
@@ -9222,100 +9208,109 @@
       </c>
       <c r="D80" s="5">
         <f>D66</f>
-        <v>2.0234049566500003</v>
+        <v>2.0986477437169668</v>
       </c>
       <c r="F80">
         <f>(D62-D61)*B52*0.000000001</f>
         <v>0.34455843986666657</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="8">
         <f>F71</f>
         <v>1.0214836026561326E-5</v>
       </c>
       <c r="D81" s="5">
         <f>F66</f>
-        <v>2.0490200070083335</v>
+        <v>2.1252153210390636</v>
       </c>
       <c r="F81">
         <f>(F62-F61)*B52*0.000000001</f>
         <v>0.32397695522500003</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="8">
         <f>H71</f>
         <v>1.0297396688880888E-5</v>
       </c>
       <c r="D82" s="5">
         <f>H66</f>
-        <v>1.9874246270083333</v>
+        <v>2.0613294415291081</v>
       </c>
       <c r="F82">
         <f>(H62-H61)*B52*0.000000001</f>
         <v>0.33111284552500014</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="8">
         <f>C72</f>
         <v>3.5527470906837661E-5</v>
       </c>
       <c r="F83">
         <f>(C63-C61)*B52*0.000000001</f>
-        <v>1.1791010288749999</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+        <v>1.2552935610047298</v>
+      </c>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="8">
         <f>E72</f>
         <v>3.5756802160450756E-5</v>
       </c>
       <c r="F84">
         <f>(E63-E61)*B52*0.000000001</f>
-        <v>1.1789508628333334</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+        <v>1.2544646111189246</v>
+      </c>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="8">
         <f>G72</f>
         <v>3.5502381267427331E-5</v>
       </c>
       <c r="F85">
         <f>(G63-G61)*B52*0.000000001</f>
-        <v>1.1457494240500001</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+        <v>1.2198469816678355</v>
+      </c>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="8">
         <f>D72</f>
         <v>3.6109426320472904E-5</v>
       </c>
       <c r="F86">
         <f>(D63-D61)*B52*0.000000001</f>
-        <v>1.1951753480333334</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+        <v>1.2704181351003001</v>
+      </c>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="8">
         <f>F72</f>
         <v>3.5843210383569787E-5</v>
       </c>
       <c r="F87">
         <f>(F63-F61)*B52*0.000000001</f>
-        <v>1.1843590245666666</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+        <v>1.2605543385973972</v>
+      </c>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="8">
         <f>H72</f>
         <v>3.5675720214018788E-5</v>
       </c>
       <c r="F88">
         <f>(H63-H61)*B52*0.000000001</f>
-        <v>1.1512329418333334</v>
-      </c>
+        <v>1.2251377563541079</v>
+      </c>
+      <c r="H88" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
